--- a/statistics/data/ROIs_voxels.xlsx
+++ b/statistics/data/ROIs_voxels.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcia\Desktop\BEHAV EXP\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFB0186A-0A38-46D0-B272-38EEE6FF4B03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0942BFAC-F31B-4365-8F9C-C19AAB173F09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{78E0D63D-C934-4647-A640-4B7C965171CC}"/>
   </bookViews>
@@ -521,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -561,6 +561,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -581,6 +584,13 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -896,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B71BDA4-28E1-48C7-8F09-DB18D466DCD3}">
-  <dimension ref="B2:AK889"/>
+  <dimension ref="B2:AL889"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="69" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -907,141 +917,143 @@
     <col min="2" max="2" width="3.578125" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="9" style="2" customWidth="1"/>
-    <col min="27" max="27" width="8.83984375" customWidth="1"/>
+    <col min="8" max="26" width="8.83984375" style="23"/>
+    <col min="27" max="27" width="8.83984375" style="23" customWidth="1"/>
+    <col min="28" max="38" width="8.83984375" style="23"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:37" ht="48.6" customHeight="1">
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15" t="s">
+      <c r="U2" s="16"/>
+      <c r="V2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15" t="s">
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15" t="s">
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15" t="s">
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" s="15"/>
+      <c r="AK2" s="16"/>
     </row>
     <row r="3" spans="2:37">
       <c r="C3" s="1"/>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="20" t="s">
+      <c r="E3" s="22"/>
+      <c r="F3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="16" t="s">
+      <c r="G3" s="22"/>
+      <c r="H3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="16" t="s">
+      <c r="I3" s="18"/>
+      <c r="J3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="16" t="s">
+      <c r="K3" s="18"/>
+      <c r="L3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="16" t="s">
+      <c r="M3" s="18"/>
+      <c r="N3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="17"/>
-      <c r="P3" s="16" t="s">
+      <c r="O3" s="18"/>
+      <c r="P3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="16" t="s">
+      <c r="Q3" s="18"/>
+      <c r="R3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="17"/>
-      <c r="T3" s="16" t="s">
+      <c r="S3" s="18"/>
+      <c r="T3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="17"/>
-      <c r="V3" s="16" t="s">
+      <c r="U3" s="18"/>
+      <c r="V3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="W3" s="17"/>
-      <c r="X3" s="16" t="s">
+      <c r="W3" s="18"/>
+      <c r="X3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="16" t="s">
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="16" t="s">
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="16" t="s">
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="16" t="s">
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="16" t="s">
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AI3" s="17"/>
-      <c r="AJ3" s="16" t="s">
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AK3" s="17"/>
+      <c r="AK3" s="18"/>
     </row>
     <row r="4" spans="2:37">
       <c r="D4" s="8" t="s">
@@ -1148,7 +1160,7 @@
       </c>
     </row>
     <row r="5" spans="2:37">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="10">
@@ -1168,99 +1180,99 @@
       <c r="G5" s="9">
         <v>1128</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="19">
+        <v>498</v>
+      </c>
+      <c r="I5" s="15">
+        <v>371</v>
+      </c>
+      <c r="J5" s="19">
+        <v>498</v>
+      </c>
+      <c r="K5" s="5">
+        <v>498</v>
+      </c>
+      <c r="L5" s="19">
+        <v>498</v>
+      </c>
+      <c r="M5" s="5">
+        <v>498</v>
+      </c>
+      <c r="N5" s="19">
         <v>536</v>
       </c>
-      <c r="I5" s="12">
+      <c r="O5" s="15">
+        <v>531</v>
+      </c>
+      <c r="P5" s="19">
+        <v>536</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>534</v>
+      </c>
+      <c r="R5" s="19">
+        <v>536</v>
+      </c>
+      <c r="S5" s="15">
+        <v>334</v>
+      </c>
+      <c r="T5" s="19">
+        <v>536</v>
+      </c>
+      <c r="U5" s="15">
         <v>504</v>
       </c>
-      <c r="J5" s="18">
+      <c r="V5" s="19">
+        <v>498</v>
+      </c>
+      <c r="W5" s="15">
+        <v>490</v>
+      </c>
+      <c r="X5" s="19">
+        <v>552</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>552</v>
+      </c>
+      <c r="Z5" s="19">
         <v>536</v>
       </c>
-      <c r="K5" s="12">
-        <v>334</v>
-      </c>
-      <c r="L5" s="18">
+      <c r="AA5" s="15">
+        <v>464</v>
+      </c>
+      <c r="AB5" s="19">
+        <v>498</v>
+      </c>
+      <c r="AC5" s="15">
+        <v>377</v>
+      </c>
+      <c r="AD5" s="19">
+        <v>515</v>
+      </c>
+      <c r="AE5" s="15">
+        <v>458</v>
+      </c>
+      <c r="AF5" s="19">
+        <v>498</v>
+      </c>
+      <c r="AG5" s="15">
+        <v>268</v>
+      </c>
+      <c r="AH5" s="19">
         <v>536</v>
       </c>
-      <c r="M5" s="12">
-        <v>534</v>
-      </c>
-      <c r="N5" s="18">
+      <c r="AI5" s="5">
+        <v>536</v>
+      </c>
+      <c r="AJ5" s="19">
         <v>498</v>
       </c>
-      <c r="O5" s="12">
-        <v>377</v>
-      </c>
-      <c r="P5" s="18">
-        <v>498</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>498</v>
-      </c>
-      <c r="R5" s="18">
-        <v>515</v>
-      </c>
-      <c r="S5" s="12">
-        <v>458</v>
-      </c>
-      <c r="T5" s="18">
-        <v>498</v>
-      </c>
-      <c r="U5" s="12">
-        <v>371</v>
-      </c>
-      <c r="V5" s="18">
-        <v>536</v>
-      </c>
-      <c r="W5" s="5">
-        <v>536</v>
-      </c>
-      <c r="X5" s="18">
-        <v>498</v>
-      </c>
-      <c r="Y5" s="12">
-        <v>490</v>
-      </c>
-      <c r="Z5" s="18">
-        <v>498</v>
-      </c>
-      <c r="AA5" s="12">
+      <c r="AK5" s="15">
         <v>497</v>
       </c>
-      <c r="AB5" s="18">
-        <v>536</v>
-      </c>
-      <c r="AC5" s="12">
-        <v>531</v>
-      </c>
-      <c r="AD5" s="18">
-        <v>498</v>
-      </c>
-      <c r="AE5" s="5">
-        <v>498</v>
-      </c>
-      <c r="AF5" s="18">
-        <v>498</v>
-      </c>
-      <c r="AG5" s="12">
-        <v>268</v>
-      </c>
-      <c r="AH5" s="18">
-        <v>552</v>
-      </c>
-      <c r="AI5" s="5">
-        <v>552</v>
-      </c>
-      <c r="AJ5" s="18">
-        <v>536</v>
-      </c>
-      <c r="AK5" s="12">
-        <v>464</v>
-      </c>
     </row>
     <row r="6" spans="2:37">
-      <c r="B6" s="19"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="11">
         <v>2</v>
       </c>
@@ -1278,69 +1290,69 @@
       <c r="G6" s="9">
         <v>496</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="6">
+        <v>321</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="6">
+        <v>482</v>
+      </c>
+      <c r="L6" s="19"/>
+      <c r="M6" s="5">
+        <v>498</v>
+      </c>
+      <c r="N6" s="19"/>
+      <c r="O6" s="15">
+        <v>534</v>
+      </c>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="15">
+        <v>511</v>
+      </c>
+      <c r="R6" s="19"/>
+      <c r="S6" s="6">
+        <v>291</v>
+      </c>
+      <c r="T6" s="19"/>
+      <c r="U6" s="6">
         <v>326</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="6">
-        <v>291</v>
-      </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="12">
-        <v>511</v>
-      </c>
-      <c r="N6" s="18"/>
-      <c r="O6" s="6">
+      <c r="V6" s="19"/>
+      <c r="W6" s="15">
+        <v>489</v>
+      </c>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="5">
+        <v>552</v>
+      </c>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="15">
+        <v>397</v>
+      </c>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="6">
         <v>346</v>
       </c>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="5">
-        <v>498</v>
-      </c>
-      <c r="R6" s="18"/>
-      <c r="S6" s="6">
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="6">
         <v>388</v>
       </c>
-      <c r="T6" s="18"/>
-      <c r="U6" s="6">
-        <v>321</v>
-      </c>
-      <c r="V6" s="18"/>
-      <c r="W6" s="5">
-        <v>536</v>
-      </c>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="12">
-        <v>489</v>
-      </c>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="12">
-        <v>491</v>
-      </c>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="12">
-        <v>534</v>
-      </c>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="6">
-        <v>482</v>
-      </c>
-      <c r="AF6" s="18"/>
+      <c r="AF6" s="19"/>
       <c r="AG6" s="6">
         <v>231</v>
       </c>
-      <c r="AH6" s="18"/>
+      <c r="AH6" s="19"/>
       <c r="AI6" s="5">
-        <v>552</v>
-      </c>
-      <c r="AJ6" s="18"/>
-      <c r="AK6" s="12">
-        <v>397</v>
+        <v>536</v>
+      </c>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="15">
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="2:37">
-      <c r="B7" s="19"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="11">
         <v>3</v>
       </c>
@@ -1358,69 +1370,69 @@
       <c r="G7" s="9">
         <v>1081</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="12">
+      <c r="H7" s="19"/>
+      <c r="I7" s="15">
+        <v>377</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="5">
+        <v>498</v>
+      </c>
+      <c r="L7" s="19"/>
+      <c r="M7" s="5">
+        <v>498</v>
+      </c>
+      <c r="N7" s="19"/>
+      <c r="O7" s="15">
+        <v>524</v>
+      </c>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="15">
+        <v>510</v>
+      </c>
+      <c r="R7" s="19"/>
+      <c r="S7" s="15">
+        <v>317</v>
+      </c>
+      <c r="T7" s="19"/>
+      <c r="U7" s="15">
         <v>449</v>
       </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="12">
-        <v>317</v>
-      </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="12">
-        <v>510</v>
-      </c>
-      <c r="N7" s="18"/>
-      <c r="O7" s="12">
+      <c r="V7" s="19"/>
+      <c r="W7" s="15">
+        <v>492</v>
+      </c>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="5">
+        <v>552</v>
+      </c>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="15">
+        <v>433</v>
+      </c>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="15">
         <v>379</v>
       </c>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="5">
-        <v>498</v>
-      </c>
-      <c r="R7" s="18"/>
-      <c r="S7" s="12">
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="15">
         <v>444</v>
       </c>
-      <c r="T7" s="18"/>
-      <c r="U7" s="12">
-        <v>377</v>
-      </c>
-      <c r="V7" s="18"/>
-      <c r="W7" s="5">
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="15">
+        <v>260</v>
+      </c>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="5">
         <v>536</v>
       </c>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="12">
-        <v>492</v>
-      </c>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="12">
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="15">
         <v>497</v>
       </c>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="12">
-        <v>524</v>
-      </c>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="5">
-        <v>498</v>
-      </c>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="12">
-        <v>260</v>
-      </c>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="5">
-        <v>552</v>
-      </c>
-      <c r="AJ7" s="18"/>
-      <c r="AK7" s="12">
-        <v>433</v>
-      </c>
     </row>
     <row r="8" spans="2:37">
-      <c r="B8" s="19"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="10">
         <v>4</v>
       </c>
@@ -1438,69 +1450,69 @@
       <c r="G8" s="9">
         <v>990</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="12">
+      <c r="H8" s="19"/>
+      <c r="I8" s="15">
+        <v>370</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="5">
+        <v>498</v>
+      </c>
+      <c r="L8" s="19"/>
+      <c r="M8" s="5">
+        <v>498</v>
+      </c>
+      <c r="N8" s="19"/>
+      <c r="O8" s="15">
+        <v>516</v>
+      </c>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="15">
+        <v>514</v>
+      </c>
+      <c r="R8" s="19"/>
+      <c r="S8" s="15">
+        <v>346</v>
+      </c>
+      <c r="T8" s="19"/>
+      <c r="U8" s="15">
         <v>472</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="12">
-        <v>346</v>
-      </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="12">
-        <v>514</v>
-      </c>
-      <c r="N8" s="18"/>
-      <c r="O8" s="12">
+      <c r="V8" s="19"/>
+      <c r="W8" s="15">
+        <v>483</v>
+      </c>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="5">
+        <v>552</v>
+      </c>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="15">
+        <v>411</v>
+      </c>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="15">
         <v>380</v>
       </c>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="5">
-        <v>498</v>
-      </c>
-      <c r="R8" s="18"/>
-      <c r="S8" s="12">
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="15">
         <v>459</v>
       </c>
-      <c r="T8" s="18"/>
-      <c r="U8" s="12">
-        <v>370</v>
-      </c>
-      <c r="V8" s="18"/>
-      <c r="W8" s="5">
-        <v>536</v>
-      </c>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="12">
-        <v>483</v>
-      </c>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="12">
-        <v>495</v>
-      </c>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="12">
-        <v>516</v>
-      </c>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="5">
-        <v>498</v>
-      </c>
-      <c r="AF8" s="18"/>
+      <c r="AF8" s="19"/>
       <c r="AG8" s="5">
         <v>315</v>
       </c>
-      <c r="AH8" s="18"/>
+      <c r="AH8" s="19"/>
       <c r="AI8" s="5">
-        <v>552</v>
-      </c>
-      <c r="AJ8" s="18"/>
-      <c r="AK8" s="12">
-        <v>411</v>
+        <v>536</v>
+      </c>
+      <c r="AJ8" s="19"/>
+      <c r="AK8" s="15">
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="2:37">
-      <c r="B9" s="19"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="11">
         <v>5</v>
       </c>
@@ -1518,69 +1530,69 @@
       <c r="G9" s="9">
         <v>820</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="12">
+      <c r="H9" s="19"/>
+      <c r="I9" s="15">
+        <v>371</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="15">
+        <v>497</v>
+      </c>
+      <c r="L9" s="19"/>
+      <c r="M9" s="5">
+        <v>498</v>
+      </c>
+      <c r="N9" s="19"/>
+      <c r="O9" s="5">
+        <v>536</v>
+      </c>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="15">
+        <v>532</v>
+      </c>
+      <c r="R9" s="19"/>
+      <c r="S9" s="15">
+        <v>328</v>
+      </c>
+      <c r="T9" s="19"/>
+      <c r="U9" s="15">
         <v>513</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="12">
-        <v>328</v>
-      </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="12">
-        <v>532</v>
-      </c>
-      <c r="N9" s="18"/>
-      <c r="O9" s="12">
+      <c r="V9" s="19"/>
+      <c r="W9" s="15">
+        <v>488</v>
+      </c>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="5">
+        <v>552</v>
+      </c>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="15">
+        <v>464</v>
+      </c>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="15">
         <v>403</v>
       </c>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="5">
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="15">
+        <v>450</v>
+      </c>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="15">
+        <v>282</v>
+      </c>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="5">
+        <v>536</v>
+      </c>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="5">
         <v>498</v>
       </c>
-      <c r="R9" s="18"/>
-      <c r="S9" s="12">
-        <v>450</v>
-      </c>
-      <c r="T9" s="18"/>
-      <c r="U9" s="12">
-        <v>371</v>
-      </c>
-      <c r="V9" s="18"/>
-      <c r="W9" s="5">
-        <v>536</v>
-      </c>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="12">
-        <v>488</v>
-      </c>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="5">
-        <v>498</v>
-      </c>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="5">
-        <v>536</v>
-      </c>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="12">
-        <v>497</v>
-      </c>
-      <c r="AF9" s="18"/>
-      <c r="AG9" s="12">
-        <v>282</v>
-      </c>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="5">
-        <v>552</v>
-      </c>
-      <c r="AJ9" s="18"/>
-      <c r="AK9" s="12">
-        <v>464</v>
-      </c>
     </row>
     <row r="10" spans="2:37">
-      <c r="B10" s="19"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="11">
         <v>6</v>
       </c>
@@ -1598,69 +1610,69 @@
       <c r="G10" s="9">
         <v>903</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="12">
+      <c r="H10" s="19"/>
+      <c r="I10" s="15">
+        <v>387</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="5">
+        <v>498</v>
+      </c>
+      <c r="L10" s="19"/>
+      <c r="M10" s="5">
+        <v>498</v>
+      </c>
+      <c r="N10" s="19"/>
+      <c r="O10" s="15">
+        <v>526</v>
+      </c>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="5">
+        <v>536</v>
+      </c>
+      <c r="R10" s="19"/>
+      <c r="S10" s="15">
+        <v>332</v>
+      </c>
+      <c r="T10" s="19"/>
+      <c r="U10" s="15">
         <v>487</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="12">
-        <v>332</v>
-      </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="5">
+      <c r="V10" s="19"/>
+      <c r="W10" s="15">
+        <v>488</v>
+      </c>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="5">
+        <v>552</v>
+      </c>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="15">
+        <v>414</v>
+      </c>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="15">
+        <v>397</v>
+      </c>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="15">
+        <v>471</v>
+      </c>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="15">
+        <v>288</v>
+      </c>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="5">
         <v>536</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="12">
-        <v>397</v>
-      </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="5">
-        <v>498</v>
-      </c>
-      <c r="R10" s="18"/>
-      <c r="S10" s="12">
-        <v>471</v>
-      </c>
-      <c r="T10" s="18"/>
-      <c r="U10" s="12">
-        <v>387</v>
-      </c>
-      <c r="V10" s="18"/>
-      <c r="W10" s="5">
-        <v>536</v>
-      </c>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="12">
-        <v>488</v>
-      </c>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="12">
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="15">
         <v>495</v>
       </c>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="12">
-        <v>526</v>
-      </c>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="5">
-        <v>498</v>
-      </c>
-      <c r="AF10" s="18"/>
-      <c r="AG10" s="12">
-        <v>288</v>
-      </c>
-      <c r="AH10" s="18"/>
-      <c r="AI10" s="5">
-        <v>552</v>
-      </c>
-      <c r="AJ10" s="18"/>
-      <c r="AK10" s="12">
-        <v>414</v>
-      </c>
     </row>
     <row r="11" spans="2:37">
-      <c r="B11" s="19"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="10">
         <v>7</v>
       </c>
@@ -1678,69 +1690,69 @@
       <c r="G11" s="9">
         <v>780</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="12">
+      <c r="H11" s="19"/>
+      <c r="I11" s="15">
+        <v>392</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="5">
+        <v>498</v>
+      </c>
+      <c r="L11" s="19"/>
+      <c r="M11" s="5">
+        <v>498</v>
+      </c>
+      <c r="N11" s="19"/>
+      <c r="O11" s="15">
+        <v>527</v>
+      </c>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="15">
+        <v>531</v>
+      </c>
+      <c r="R11" s="19"/>
+      <c r="S11" s="15">
+        <v>322</v>
+      </c>
+      <c r="T11" s="19"/>
+      <c r="U11" s="15">
         <v>495</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="12">
-        <v>322</v>
-      </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="12">
-        <v>531</v>
-      </c>
-      <c r="N11" s="18"/>
-      <c r="O11" s="12">
+      <c r="V11" s="19"/>
+      <c r="W11" s="15">
+        <v>482</v>
+      </c>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="5">
+        <v>552</v>
+      </c>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="15">
+        <v>436</v>
+      </c>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="15">
         <v>384</v>
       </c>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="5">
-        <v>498</v>
-      </c>
-      <c r="R11" s="18"/>
-      <c r="S11" s="12">
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="15">
         <v>458</v>
       </c>
-      <c r="T11" s="18"/>
-      <c r="U11" s="12">
-        <v>392</v>
-      </c>
-      <c r="V11" s="18"/>
-      <c r="W11" s="5">
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="15">
+        <v>262</v>
+      </c>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="5">
         <v>536</v>
       </c>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="12">
-        <v>482</v>
-      </c>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="12">
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="15">
         <v>497</v>
       </c>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="12">
-        <v>527</v>
-      </c>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="5">
-        <v>498</v>
-      </c>
-      <c r="AF11" s="18"/>
-      <c r="AG11" s="12">
-        <v>262</v>
-      </c>
-      <c r="AH11" s="18"/>
-      <c r="AI11" s="5">
-        <v>552</v>
-      </c>
-      <c r="AJ11" s="18"/>
-      <c r="AK11" s="12">
-        <v>436</v>
-      </c>
     </row>
     <row r="12" spans="2:37">
-      <c r="B12" s="19"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="11">
         <v>8</v>
       </c>
@@ -1758,69 +1770,69 @@
       <c r="G12" s="9">
         <v>946</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="12">
+      <c r="H12" s="19"/>
+      <c r="I12" s="15">
+        <v>370</v>
+      </c>
+      <c r="J12" s="19"/>
+      <c r="K12" s="5">
+        <v>498</v>
+      </c>
+      <c r="L12" s="19"/>
+      <c r="M12" s="5">
+        <v>498</v>
+      </c>
+      <c r="N12" s="19"/>
+      <c r="O12" s="15">
+        <v>534</v>
+      </c>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="15">
+        <v>507</v>
+      </c>
+      <c r="R12" s="19"/>
+      <c r="S12" s="15">
+        <v>331</v>
+      </c>
+      <c r="T12" s="19"/>
+      <c r="U12" s="15">
         <v>482</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="12">
-        <v>331</v>
-      </c>
-      <c r="L12" s="18"/>
-      <c r="M12" s="12">
-        <v>507</v>
-      </c>
-      <c r="N12" s="18"/>
-      <c r="O12" s="12">
+      <c r="V12" s="19"/>
+      <c r="W12" s="15">
+        <v>490</v>
+      </c>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="5">
+        <v>552</v>
+      </c>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="15">
+        <v>429</v>
+      </c>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="15">
         <v>397</v>
       </c>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="5">
-        <v>498</v>
-      </c>
-      <c r="R12" s="18"/>
-      <c r="S12" s="12">
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="15">
         <v>460</v>
       </c>
-      <c r="T12" s="18"/>
-      <c r="U12" s="12">
-        <v>370</v>
-      </c>
-      <c r="V12" s="18"/>
-      <c r="W12" s="5">
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="15">
+        <v>286</v>
+      </c>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="5">
         <v>536</v>
       </c>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="12">
-        <v>490</v>
-      </c>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="12">
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="15">
         <v>497</v>
       </c>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="12">
-        <v>534</v>
-      </c>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="5">
-        <v>498</v>
-      </c>
-      <c r="AF12" s="18"/>
-      <c r="AG12" s="12">
-        <v>286</v>
-      </c>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="5">
-        <v>552</v>
-      </c>
-      <c r="AJ12" s="18"/>
-      <c r="AK12" s="12">
-        <v>429</v>
-      </c>
     </row>
     <row r="13" spans="2:37">
-      <c r="B13" s="19"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="11">
         <v>9</v>
       </c>
@@ -1838,69 +1850,69 @@
       <c r="G13" s="9">
         <v>1081</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="12">
+      <c r="H13" s="19"/>
+      <c r="I13" s="15">
+        <v>431</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="5">
+        <v>498</v>
+      </c>
+      <c r="L13" s="19"/>
+      <c r="M13" s="5">
+        <v>498</v>
+      </c>
+      <c r="N13" s="19"/>
+      <c r="O13" s="15">
+        <v>535</v>
+      </c>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="15">
+        <v>535</v>
+      </c>
+      <c r="R13" s="19"/>
+      <c r="S13" s="5">
+        <v>380</v>
+      </c>
+      <c r="T13" s="19"/>
+      <c r="U13" s="15">
         <v>513</v>
       </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="5">
-        <v>380</v>
-      </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="12">
-        <v>535</v>
-      </c>
-      <c r="N13" s="18"/>
-      <c r="O13" s="12">
+      <c r="V13" s="19"/>
+      <c r="W13" s="15">
+        <v>485</v>
+      </c>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="5">
+        <v>552</v>
+      </c>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="15">
+        <v>447</v>
+      </c>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="15">
         <v>396</v>
       </c>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="5">
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="5">
+        <v>489</v>
+      </c>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="15">
+        <v>284</v>
+      </c>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="5">
+        <v>536</v>
+      </c>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="5">
         <v>498</v>
       </c>
-      <c r="R13" s="18"/>
-      <c r="S13" s="5">
-        <v>489</v>
-      </c>
-      <c r="T13" s="18"/>
-      <c r="U13" s="12">
-        <v>431</v>
-      </c>
-      <c r="V13" s="18"/>
-      <c r="W13" s="5">
-        <v>536</v>
-      </c>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="12">
-        <v>485</v>
-      </c>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="5">
-        <v>498</v>
-      </c>
-      <c r="AB13" s="18"/>
-      <c r="AC13" s="12">
-        <v>535</v>
-      </c>
-      <c r="AD13" s="18"/>
-      <c r="AE13" s="5">
-        <v>498</v>
-      </c>
-      <c r="AF13" s="18"/>
-      <c r="AG13" s="12">
-        <v>284</v>
-      </c>
-      <c r="AH13" s="18"/>
-      <c r="AI13" s="5">
-        <v>552</v>
-      </c>
-      <c r="AJ13" s="18"/>
-      <c r="AK13" s="12">
-        <v>447</v>
-      </c>
     </row>
     <row r="14" spans="2:37">
-      <c r="B14" s="19"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="10">
         <v>10</v>
       </c>
@@ -1918,69 +1930,69 @@
       <c r="G14" s="9">
         <v>1128</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="12">
+      <c r="H14" s="19"/>
+      <c r="I14" s="15">
+        <v>377</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="5">
+        <v>498</v>
+      </c>
+      <c r="L14" s="19"/>
+      <c r="M14" s="5">
+        <v>498</v>
+      </c>
+      <c r="N14" s="19"/>
+      <c r="O14" s="15">
+        <v>532</v>
+      </c>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="15">
+        <v>532</v>
+      </c>
+      <c r="R14" s="19"/>
+      <c r="S14" s="15">
+        <v>318</v>
+      </c>
+      <c r="T14" s="19"/>
+      <c r="U14" s="15">
         <v>427</v>
       </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="12">
-        <v>318</v>
-      </c>
-      <c r="L14" s="18"/>
-      <c r="M14" s="12">
-        <v>532</v>
-      </c>
-      <c r="N14" s="18"/>
-      <c r="O14" s="12">
+      <c r="V14" s="19"/>
+      <c r="W14" s="15">
+        <v>482</v>
+      </c>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="5">
+        <v>552</v>
+      </c>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="15">
+        <v>449</v>
+      </c>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="15">
         <v>399</v>
       </c>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="5">
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="15">
+        <v>449</v>
+      </c>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="15">
+        <v>282</v>
+      </c>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="5">
+        <v>536</v>
+      </c>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="5">
         <v>498</v>
       </c>
-      <c r="R14" s="18"/>
-      <c r="S14" s="12">
-        <v>449</v>
-      </c>
-      <c r="T14" s="18"/>
-      <c r="U14" s="12">
-        <v>377</v>
-      </c>
-      <c r="V14" s="18"/>
-      <c r="W14" s="5">
-        <v>536</v>
-      </c>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="12">
-        <v>482</v>
-      </c>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="5">
-        <v>498</v>
-      </c>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="12">
-        <v>532</v>
-      </c>
-      <c r="AD14" s="18"/>
-      <c r="AE14" s="5">
-        <v>498</v>
-      </c>
-      <c r="AF14" s="18"/>
-      <c r="AG14" s="12">
-        <v>282</v>
-      </c>
-      <c r="AH14" s="18"/>
-      <c r="AI14" s="5">
-        <v>552</v>
-      </c>
-      <c r="AJ14" s="18"/>
-      <c r="AK14" s="12">
-        <v>449</v>
-      </c>
     </row>
     <row r="15" spans="2:37">
-      <c r="B15" s="19"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="11">
         <v>11</v>
       </c>
@@ -1998,69 +2010,69 @@
       <c r="G15" s="9">
         <v>903</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="12">
+      <c r="H15" s="19"/>
+      <c r="I15" s="15">
+        <v>358</v>
+      </c>
+      <c r="J15" s="19"/>
+      <c r="K15" s="5">
+        <v>498</v>
+      </c>
+      <c r="L15" s="19"/>
+      <c r="M15" s="5">
+        <v>498</v>
+      </c>
+      <c r="N15" s="19"/>
+      <c r="O15" s="15">
+        <v>517</v>
+      </c>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="15">
+        <v>533</v>
+      </c>
+      <c r="R15" s="19"/>
+      <c r="S15" s="15">
+        <v>319</v>
+      </c>
+      <c r="T15" s="19"/>
+      <c r="U15" s="15">
         <v>476</v>
       </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="12">
-        <v>319</v>
-      </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="12">
-        <v>533</v>
-      </c>
-      <c r="N15" s="18"/>
-      <c r="O15" s="12">
+      <c r="V15" s="19"/>
+      <c r="W15" s="15">
+        <v>489</v>
+      </c>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="5">
+        <v>552</v>
+      </c>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="15">
+        <v>441</v>
+      </c>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="15">
         <v>371</v>
       </c>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="5">
-        <v>498</v>
-      </c>
-      <c r="R15" s="18"/>
-      <c r="S15" s="12">
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="15">
         <v>471</v>
       </c>
-      <c r="T15" s="18"/>
-      <c r="U15" s="12">
-        <v>358</v>
-      </c>
-      <c r="V15" s="18"/>
-      <c r="W15" s="5">
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="15">
+        <v>266</v>
+      </c>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="5">
         <v>536</v>
       </c>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="12">
-        <v>489</v>
-      </c>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="12">
+      <c r="AJ15" s="19"/>
+      <c r="AK15" s="15">
         <v>496</v>
       </c>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="12">
-        <v>517</v>
-      </c>
-      <c r="AD15" s="18"/>
-      <c r="AE15" s="5">
-        <v>498</v>
-      </c>
-      <c r="AF15" s="18"/>
-      <c r="AG15" s="12">
-        <v>266</v>
-      </c>
-      <c r="AH15" s="18"/>
-      <c r="AI15" s="5">
-        <v>552</v>
-      </c>
-      <c r="AJ15" s="18"/>
-      <c r="AK15" s="12">
-        <v>441</v>
-      </c>
     </row>
     <row r="16" spans="2:37">
-      <c r="B16" s="19"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="11">
         <v>12</v>
       </c>
@@ -2078,69 +2090,69 @@
       <c r="G16" s="9">
         <v>1081</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="12">
+      <c r="H16" s="19"/>
+      <c r="I16" s="15">
+        <v>360</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="5">
+        <v>498</v>
+      </c>
+      <c r="L16" s="19"/>
+      <c r="M16" s="5">
+        <v>498</v>
+      </c>
+      <c r="N16" s="19"/>
+      <c r="O16" s="6">
+        <v>500</v>
+      </c>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="5">
+        <v>536</v>
+      </c>
+      <c r="R16" s="19"/>
+      <c r="S16" s="15">
+        <v>335</v>
+      </c>
+      <c r="T16" s="19"/>
+      <c r="U16" s="15">
         <v>469</v>
       </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="12">
-        <v>335</v>
-      </c>
-      <c r="L16" s="18"/>
-      <c r="M16" s="5">
+      <c r="V16" s="19"/>
+      <c r="W16" s="15">
+        <v>481</v>
+      </c>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="5">
+        <v>552</v>
+      </c>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="15">
+        <v>427</v>
+      </c>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="15">
+        <v>398</v>
+      </c>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="15">
+        <v>460</v>
+      </c>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="15">
+        <v>286</v>
+      </c>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="5">
         <v>536</v>
       </c>
-      <c r="N16" s="18"/>
-      <c r="O16" s="12">
-        <v>398</v>
-      </c>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="5">
-        <v>498</v>
-      </c>
-      <c r="R16" s="18"/>
-      <c r="S16" s="12">
-        <v>460</v>
-      </c>
-      <c r="T16" s="18"/>
-      <c r="U16" s="12">
-        <v>360</v>
-      </c>
-      <c r="V16" s="18"/>
-      <c r="W16" s="5">
-        <v>536</v>
-      </c>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="12">
-        <v>481</v>
-      </c>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="12">
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="15">
         <v>495</v>
       </c>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="6">
-        <v>500</v>
-      </c>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="5">
-        <v>498</v>
-      </c>
-      <c r="AF16" s="18"/>
-      <c r="AG16" s="12">
-        <v>286</v>
-      </c>
-      <c r="AH16" s="18"/>
-      <c r="AI16" s="5">
-        <v>552</v>
-      </c>
-      <c r="AJ16" s="18"/>
-      <c r="AK16" s="12">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="17" spans="2:37">
-      <c r="B17" s="19"/>
+    </row>
+    <row r="17" spans="2:38">
+      <c r="B17" s="20"/>
       <c r="C17" s="10">
         <v>13</v>
       </c>
@@ -2158,69 +2170,69 @@
       <c r="G17" s="9">
         <v>1035</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="5">
+      <c r="H17" s="19"/>
+      <c r="I17" s="15">
+        <v>371</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="5">
+        <v>498</v>
+      </c>
+      <c r="L17" s="19"/>
+      <c r="M17" s="5">
+        <v>498</v>
+      </c>
+      <c r="N17" s="19"/>
+      <c r="O17" s="5">
+        <v>536</v>
+      </c>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="15">
+        <v>507</v>
+      </c>
+      <c r="R17" s="19"/>
+      <c r="S17" s="15">
+        <v>294</v>
+      </c>
+      <c r="T17" s="19"/>
+      <c r="U17" s="5">
         <v>521</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="12">
-        <v>294</v>
-      </c>
-      <c r="L17" s="18"/>
-      <c r="M17" s="12">
-        <v>507</v>
-      </c>
-      <c r="N17" s="18"/>
-      <c r="O17" s="12">
+      <c r="V17" s="19"/>
+      <c r="W17" s="15">
+        <v>496</v>
+      </c>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="5">
+        <v>552</v>
+      </c>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="15">
+        <v>485</v>
+      </c>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="15">
         <v>381</v>
       </c>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="5">
-        <v>498</v>
-      </c>
-      <c r="R17" s="18"/>
-      <c r="S17" s="12">
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="15">
         <v>470</v>
       </c>
-      <c r="T17" s="18"/>
-      <c r="U17" s="12">
-        <v>371</v>
-      </c>
-      <c r="V17" s="18"/>
-      <c r="W17" s="5">
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="15">
+        <v>263</v>
+      </c>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="5">
         <v>536</v>
       </c>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="12">
-        <v>496</v>
-      </c>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="12">
+      <c r="AJ17" s="19"/>
+      <c r="AK17" s="15">
         <v>497</v>
       </c>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="5">
-        <v>536</v>
-      </c>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="5">
-        <v>498</v>
-      </c>
-      <c r="AF17" s="18"/>
-      <c r="AG17" s="12">
-        <v>263</v>
-      </c>
-      <c r="AH17" s="18"/>
-      <c r="AI17" s="5">
-        <v>552</v>
-      </c>
-      <c r="AJ17" s="18"/>
-      <c r="AK17" s="12">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="18" spans="2:37">
-      <c r="B18" s="19"/>
+    </row>
+    <row r="18" spans="2:38">
+      <c r="B18" s="20"/>
       <c r="C18" s="11">
         <v>14</v>
       </c>
@@ -2238,69 +2250,69 @@
       <c r="G18" s="9">
         <v>1035</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="12">
+      <c r="H18" s="19"/>
+      <c r="I18" s="15">
+        <v>399</v>
+      </c>
+      <c r="J18" s="19"/>
+      <c r="K18" s="5">
+        <v>498</v>
+      </c>
+      <c r="L18" s="19"/>
+      <c r="M18" s="5">
+        <v>498</v>
+      </c>
+      <c r="N18" s="19"/>
+      <c r="O18" s="15">
+        <v>511</v>
+      </c>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="15">
+        <v>531</v>
+      </c>
+      <c r="R18" s="19"/>
+      <c r="S18" s="15">
+        <v>351</v>
+      </c>
+      <c r="T18" s="19"/>
+      <c r="U18" s="15">
         <v>355</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="12">
-        <v>351</v>
-      </c>
-      <c r="L18" s="18"/>
-      <c r="M18" s="12">
-        <v>531</v>
-      </c>
-      <c r="N18" s="18"/>
-      <c r="O18" s="12">
+      <c r="V18" s="19"/>
+      <c r="W18" s="6">
+        <v>480</v>
+      </c>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="5">
+        <v>552</v>
+      </c>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="15">
+        <v>476</v>
+      </c>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="15">
         <v>394</v>
       </c>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="5">
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="15">
+        <v>472</v>
+      </c>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="15">
+        <v>290</v>
+      </c>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="5">
+        <v>536</v>
+      </c>
+      <c r="AJ18" s="19"/>
+      <c r="AK18" s="5">
         <v>498</v>
       </c>
-      <c r="R18" s="18"/>
-      <c r="S18" s="12">
-        <v>472</v>
-      </c>
-      <c r="T18" s="18"/>
-      <c r="U18" s="12">
-        <v>399</v>
-      </c>
-      <c r="V18" s="18"/>
-      <c r="W18" s="5">
-        <v>536</v>
-      </c>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="6">
-        <v>480</v>
-      </c>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="5">
-        <v>498</v>
-      </c>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="12">
-        <v>511</v>
-      </c>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="5">
-        <v>498</v>
-      </c>
-      <c r="AF18" s="18"/>
-      <c r="AG18" s="12">
-        <v>290</v>
-      </c>
-      <c r="AH18" s="18"/>
-      <c r="AI18" s="5">
-        <v>552</v>
-      </c>
-      <c r="AJ18" s="18"/>
-      <c r="AK18" s="12">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="19" spans="2:37">
-      <c r="B19" s="19"/>
+    </row>
+    <row r="19" spans="2:38">
+      <c r="B19" s="20"/>
       <c r="C19" s="11">
         <v>15</v>
       </c>
@@ -2318,69 +2330,69 @@
       <c r="G19" s="9">
         <v>820</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="12">
+      <c r="H19" s="19"/>
+      <c r="I19" s="15">
+        <v>353</v>
+      </c>
+      <c r="J19" s="19"/>
+      <c r="K19" s="5">
+        <v>498</v>
+      </c>
+      <c r="L19" s="19"/>
+      <c r="M19" s="5">
+        <v>498</v>
+      </c>
+      <c r="N19" s="19"/>
+      <c r="O19" s="5">
+        <v>536</v>
+      </c>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="6">
+        <v>501</v>
+      </c>
+      <c r="R19" s="19"/>
+      <c r="S19" s="15">
+        <v>330</v>
+      </c>
+      <c r="T19" s="19"/>
+      <c r="U19" s="15">
         <v>487</v>
       </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="12">
-        <v>330</v>
-      </c>
-      <c r="L19" s="18"/>
-      <c r="M19" s="6">
-        <v>501</v>
-      </c>
-      <c r="N19" s="18"/>
-      <c r="O19" s="12">
+      <c r="V19" s="19"/>
+      <c r="W19" s="15">
+        <v>485</v>
+      </c>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="5">
+        <v>552</v>
+      </c>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="15">
+        <v>467</v>
+      </c>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="15">
         <v>396</v>
       </c>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="5">
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="15">
+        <v>453</v>
+      </c>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="15">
+        <v>265</v>
+      </c>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="5">
+        <v>536</v>
+      </c>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="5">
         <v>498</v>
       </c>
-      <c r="R19" s="18"/>
-      <c r="S19" s="12">
-        <v>453</v>
-      </c>
-      <c r="T19" s="18"/>
-      <c r="U19" s="12">
-        <v>353</v>
-      </c>
-      <c r="V19" s="18"/>
-      <c r="W19" s="5">
-        <v>536</v>
-      </c>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="12">
-        <v>485</v>
-      </c>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="5">
-        <v>498</v>
-      </c>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="5">
-        <v>536</v>
-      </c>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="5">
-        <v>498</v>
-      </c>
-      <c r="AF19" s="18"/>
-      <c r="AG19" s="12">
-        <v>265</v>
-      </c>
-      <c r="AH19" s="18"/>
-      <c r="AI19" s="5">
-        <v>552</v>
-      </c>
-      <c r="AJ19" s="18"/>
-      <c r="AK19" s="12">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="20" spans="2:37">
-      <c r="B20" s="19"/>
+    </row>
+    <row r="20" spans="2:38">
+      <c r="B20" s="20"/>
       <c r="C20" s="10">
         <v>16</v>
       </c>
@@ -2398,69 +2410,69 @@
       <c r="G20" s="9">
         <v>780</v>
       </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="12">
+      <c r="H20" s="19"/>
+      <c r="I20" s="5">
+        <v>465</v>
+      </c>
+      <c r="J20" s="19"/>
+      <c r="K20" s="5">
+        <v>498</v>
+      </c>
+      <c r="L20" s="19"/>
+      <c r="M20" s="5">
+        <v>498</v>
+      </c>
+      <c r="N20" s="19"/>
+      <c r="O20" s="15">
+        <v>512</v>
+      </c>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="15">
+        <v>529</v>
+      </c>
+      <c r="R20" s="19"/>
+      <c r="S20" s="15">
+        <v>336</v>
+      </c>
+      <c r="T20" s="19"/>
+      <c r="U20" s="15">
         <v>502</v>
       </c>
-      <c r="J20" s="18"/>
-      <c r="K20" s="12">
-        <v>336</v>
-      </c>
-      <c r="L20" s="18"/>
-      <c r="M20" s="12">
-        <v>529</v>
-      </c>
-      <c r="N20" s="18"/>
-      <c r="O20" s="12">
+      <c r="V20" s="19"/>
+      <c r="W20" s="5">
+        <v>498</v>
+      </c>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="5">
+        <v>552</v>
+      </c>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="15">
+        <v>429</v>
+      </c>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="15">
         <v>402</v>
       </c>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="5">
-        <v>498</v>
-      </c>
-      <c r="R20" s="18"/>
-      <c r="S20" s="12">
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="15">
         <v>452</v>
       </c>
-      <c r="T20" s="18"/>
-      <c r="U20" s="5">
-        <v>465</v>
-      </c>
-      <c r="V20" s="18"/>
-      <c r="W20" s="5">
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="15">
+        <v>282</v>
+      </c>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="5">
         <v>536</v>
       </c>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="5">
-        <v>498</v>
-      </c>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="6">
+      <c r="AJ20" s="19"/>
+      <c r="AK20" s="6">
         <v>191</v>
       </c>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="12">
-        <v>512</v>
-      </c>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="5">
-        <v>498</v>
-      </c>
-      <c r="AF20" s="18"/>
-      <c r="AG20" s="12">
-        <v>282</v>
-      </c>
-      <c r="AH20" s="18"/>
-      <c r="AI20" s="5">
-        <v>552</v>
-      </c>
-      <c r="AJ20" s="18"/>
-      <c r="AK20" s="12">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="21" spans="2:37">
-      <c r="B21" s="19"/>
+    </row>
+    <row r="21" spans="2:38">
+      <c r="B21" s="20"/>
       <c r="C21" s="11">
         <v>17</v>
       </c>
@@ -2478,69 +2490,69 @@
       <c r="G21" s="9">
         <v>861</v>
       </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="12">
+      <c r="H21" s="19"/>
+      <c r="I21" s="15">
+        <v>354</v>
+      </c>
+      <c r="J21" s="19"/>
+      <c r="K21" s="5">
+        <v>498</v>
+      </c>
+      <c r="L21" s="19"/>
+      <c r="M21" s="5">
+        <v>498</v>
+      </c>
+      <c r="N21" s="19"/>
+      <c r="O21" s="15">
+        <v>532</v>
+      </c>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="15">
+        <v>530</v>
+      </c>
+      <c r="R21" s="19"/>
+      <c r="S21" s="15">
+        <v>327</v>
+      </c>
+      <c r="T21" s="19"/>
+      <c r="U21" s="15">
         <v>496</v>
       </c>
-      <c r="J21" s="18"/>
-      <c r="K21" s="12">
-        <v>327</v>
-      </c>
-      <c r="L21" s="18"/>
-      <c r="M21" s="12">
-        <v>530</v>
-      </c>
-      <c r="N21" s="18"/>
-      <c r="O21" s="12">
+      <c r="V21" s="19"/>
+      <c r="W21" s="15">
+        <v>493</v>
+      </c>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="5">
+        <v>552</v>
+      </c>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="6">
+        <v>392</v>
+      </c>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="15">
         <v>399</v>
       </c>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="5">
-        <v>498</v>
-      </c>
-      <c r="R21" s="18"/>
-      <c r="S21" s="12">
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="15">
         <v>456</v>
       </c>
-      <c r="T21" s="18"/>
-      <c r="U21" s="12">
-        <v>354</v>
-      </c>
-      <c r="V21" s="18"/>
-      <c r="W21" s="5">
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="15">
+        <v>257</v>
+      </c>
+      <c r="AH21" s="19"/>
+      <c r="AI21" s="5">
         <v>536</v>
       </c>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="12">
-        <v>493</v>
-      </c>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="12">
+      <c r="AJ21" s="19"/>
+      <c r="AK21" s="15">
         <v>497</v>
       </c>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="12">
-        <v>532</v>
-      </c>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="5">
-        <v>498</v>
-      </c>
-      <c r="AF21" s="18"/>
-      <c r="AG21" s="12">
-        <v>257</v>
-      </c>
-      <c r="AH21" s="18"/>
-      <c r="AI21" s="5">
-        <v>552</v>
-      </c>
-      <c r="AJ21" s="18"/>
-      <c r="AK21" s="6">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="22" spans="2:37">
-      <c r="B22" s="19"/>
+    </row>
+    <row r="22" spans="2:38">
+      <c r="B22" s="20"/>
       <c r="C22" s="11">
         <v>18</v>
       </c>
@@ -2558,69 +2570,69 @@
       <c r="G22" s="9">
         <v>946</v>
       </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="12">
+      <c r="H22" s="19"/>
+      <c r="I22" s="15">
+        <v>420</v>
+      </c>
+      <c r="J22" s="19"/>
+      <c r="K22" s="5">
+        <v>498</v>
+      </c>
+      <c r="L22" s="19"/>
+      <c r="M22" s="5">
+        <v>498</v>
+      </c>
+      <c r="N22" s="19"/>
+      <c r="O22" s="15">
+        <v>525</v>
+      </c>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="15">
+        <v>533</v>
+      </c>
+      <c r="R22" s="19"/>
+      <c r="S22" s="15">
+        <v>337</v>
+      </c>
+      <c r="T22" s="19"/>
+      <c r="U22" s="15">
         <v>496</v>
       </c>
-      <c r="J22" s="18"/>
-      <c r="K22" s="12">
-        <v>337</v>
-      </c>
-      <c r="L22" s="18"/>
-      <c r="M22" s="12">
-        <v>533</v>
-      </c>
-      <c r="N22" s="18"/>
-      <c r="O22" s="5">
+      <c r="V22" s="19"/>
+      <c r="W22" s="15">
+        <v>488</v>
+      </c>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="5">
+        <v>552</v>
+      </c>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="15">
+        <v>450</v>
+      </c>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="5">
         <v>411</v>
       </c>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="5">
-        <v>498</v>
-      </c>
-      <c r="R22" s="18"/>
-      <c r="S22" s="12">
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="15">
         <v>482</v>
       </c>
-      <c r="T22" s="18"/>
-      <c r="U22" s="12">
-        <v>420</v>
-      </c>
-      <c r="V22" s="18"/>
-      <c r="W22" s="5">
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="15">
+        <v>283</v>
+      </c>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="5">
         <v>536</v>
       </c>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="12">
-        <v>488</v>
-      </c>
-      <c r="Z22" s="18"/>
-      <c r="AA22" s="12">
+      <c r="AJ22" s="19"/>
+      <c r="AK22" s="15">
         <v>289</v>
       </c>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="12">
-        <v>525</v>
-      </c>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="5">
-        <v>498</v>
-      </c>
-      <c r="AF22" s="18"/>
-      <c r="AG22" s="12">
-        <v>283</v>
-      </c>
-      <c r="AH22" s="18"/>
-      <c r="AI22" s="5">
-        <v>552</v>
-      </c>
-      <c r="AJ22" s="18"/>
-      <c r="AK22" s="12">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="23" spans="2:37">
-      <c r="B23" s="19"/>
+    </row>
+    <row r="23" spans="2:38">
+      <c r="B23" s="20"/>
       <c r="C23" s="10">
         <v>19</v>
       </c>
@@ -2638,69 +2650,69 @@
       <c r="G23" s="9">
         <v>990</v>
       </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="12">
+      <c r="H23" s="19"/>
+      <c r="I23" s="15">
+        <v>375</v>
+      </c>
+      <c r="J23" s="19"/>
+      <c r="K23" s="5">
+        <v>498</v>
+      </c>
+      <c r="L23" s="19"/>
+      <c r="M23" s="5">
+        <v>498</v>
+      </c>
+      <c r="N23" s="19"/>
+      <c r="O23" s="15">
+        <v>504</v>
+      </c>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="15">
+        <v>532</v>
+      </c>
+      <c r="R23" s="19"/>
+      <c r="S23" s="15">
+        <v>304</v>
+      </c>
+      <c r="T23" s="19"/>
+      <c r="U23" s="15">
         <v>426</v>
       </c>
-      <c r="J23" s="18"/>
-      <c r="K23" s="12">
-        <v>304</v>
-      </c>
-      <c r="L23" s="18"/>
-      <c r="M23" s="12">
-        <v>532</v>
-      </c>
-      <c r="N23" s="18"/>
-      <c r="O23" s="12">
+      <c r="V23" s="19"/>
+      <c r="W23" s="15">
+        <v>488</v>
+      </c>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="5">
+        <v>552</v>
+      </c>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="5">
+        <v>518</v>
+      </c>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="15">
         <v>375</v>
       </c>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="5">
-        <v>498</v>
-      </c>
-      <c r="R23" s="18"/>
-      <c r="S23" s="12">
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="15">
         <v>466</v>
       </c>
-      <c r="T23" s="18"/>
-      <c r="U23" s="12">
-        <v>375</v>
-      </c>
-      <c r="V23" s="18"/>
-      <c r="W23" s="5">
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="15">
+        <v>295</v>
+      </c>
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="5">
         <v>536</v>
       </c>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="12">
-        <v>488</v>
-      </c>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="12">
+      <c r="AJ23" s="19"/>
+      <c r="AK23" s="15">
         <v>495</v>
       </c>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="12">
-        <v>504</v>
-      </c>
-      <c r="AD23" s="18"/>
-      <c r="AE23" s="5">
-        <v>498</v>
-      </c>
-      <c r="AF23" s="18"/>
-      <c r="AG23" s="12">
-        <v>295</v>
-      </c>
-      <c r="AH23" s="18"/>
-      <c r="AI23" s="5">
-        <v>552</v>
-      </c>
-      <c r="AJ23" s="18"/>
-      <c r="AK23" s="5">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="24" spans="2:37">
-      <c r="B24" s="19"/>
+    </row>
+    <row r="24" spans="2:38">
+      <c r="B24" s="20"/>
       <c r="C24" s="11">
         <v>20</v>
       </c>
@@ -2718,123 +2730,149 @@
       <c r="G24" s="9">
         <v>990</v>
       </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="12">
+      <c r="H24" s="19"/>
+      <c r="I24" s="15">
+        <v>355</v>
+      </c>
+      <c r="J24" s="19"/>
+      <c r="K24" s="5">
+        <v>498</v>
+      </c>
+      <c r="L24" s="19"/>
+      <c r="M24" s="5">
+        <v>498</v>
+      </c>
+      <c r="N24" s="19"/>
+      <c r="O24" s="15">
         <v>509</v>
       </c>
-      <c r="J24" s="18"/>
-      <c r="K24" s="12">
+      <c r="P24" s="19"/>
+      <c r="Q24" s="15">
+        <v>523</v>
+      </c>
+      <c r="R24" s="19"/>
+      <c r="S24" s="15">
         <v>301</v>
       </c>
-      <c r="L24" s="18"/>
-      <c r="M24" s="12">
-        <v>523</v>
-      </c>
-      <c r="N24" s="18"/>
-      <c r="O24" s="12">
+      <c r="T24" s="19"/>
+      <c r="U24" s="15">
+        <v>509</v>
+      </c>
+      <c r="V24" s="19"/>
+      <c r="W24" s="15">
+        <v>493</v>
+      </c>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="5">
+        <v>552</v>
+      </c>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="15">
+        <v>421</v>
+      </c>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="15">
         <v>386</v>
       </c>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="5">
-        <v>498</v>
-      </c>
-      <c r="R24" s="18"/>
-      <c r="S24" s="12">
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="15">
         <v>450</v>
       </c>
-      <c r="T24" s="18"/>
-      <c r="U24" s="12">
-        <v>355</v>
-      </c>
-      <c r="V24" s="18"/>
-      <c r="W24" s="5">
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="15">
+        <v>264</v>
+      </c>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="5">
         <v>536</v>
       </c>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="12">
-        <v>493</v>
-      </c>
-      <c r="Z24" s="18"/>
-      <c r="AA24" s="12">
+      <c r="AJ24" s="19"/>
+      <c r="AK24" s="15">
         <v>494</v>
       </c>
-      <c r="AB24" s="18"/>
-      <c r="AC24" s="12">
-        <v>509</v>
-      </c>
-      <c r="AD24" s="18"/>
-      <c r="AE24" s="5">
-        <v>498</v>
-      </c>
-      <c r="AF24" s="18"/>
-      <c r="AG24" s="12">
-        <v>264</v>
-      </c>
-      <c r="AH24" s="18"/>
-      <c r="AI24" s="5">
-        <v>552</v>
-      </c>
-      <c r="AJ24" s="18"/>
-      <c r="AK24" s="12">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="25" spans="2:37">
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-    </row>
-    <row r="26" spans="2:37" s="13" customFormat="1" ht="51.3" customHeight="1">
+    </row>
+    <row r="25" spans="2:38">
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+    </row>
+    <row r="26" spans="2:38" s="13" customFormat="1" ht="51.3" customHeight="1">
       <c r="C26" s="14"/>
-      <c r="D26" s="14">
-        <v>92</v>
-      </c>
-      <c r="E26" s="14">
-        <f>(D26*(D26-1))/2</f>
-        <v>4186</v>
-      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="2:37">
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="25"/>
+      <c r="AI26" s="25"/>
+      <c r="AJ26" s="25"/>
+      <c r="AK26" s="25"/>
+      <c r="AL26" s="25"/>
+    </row>
+    <row r="27" spans="2:38">
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:37">
+    <row r="28" spans="2:38">
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:37">
+    <row r="29" spans="2:38">
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:37">
+    <row r="30" spans="2:38">
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:37">
+    <row r="31" spans="2:38">
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="2:37">
+    <row r="32" spans="2:38">
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
